--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_12_6.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_12_6.xlsx
@@ -518,441 +518,441 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_10</t>
+          <t>model_12_6_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999916785987254</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9989259021174878</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999935259843792</v>
+        <v>0.9998997999500636</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999688832563176</v>
+        <v>0.999999949759605</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999770078537991</v>
+        <v>0.9999657094230571</v>
       </c>
       <c r="G2" t="n">
-        <v>7.767662822509081e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001002623225877138</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I2" t="n">
-        <v>2.629942087829688e-06</v>
+        <v>4.052437983134418e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>4.073159892885641e-05</v>
+        <v>3.878815390019585e-08</v>
       </c>
       <c r="K2" t="n">
-        <v>2.168077050834305e-05</v>
+        <v>2.028158399262219e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001869794634758094</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002787052712545832</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000039942726118</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002905703316513375</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P2" t="n">
-        <v>81.531082467753</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q2" t="n">
-        <v>116.8784813889308</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_11</t>
+          <t>model_12_6_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999917592780173</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C3" t="n">
-        <v>0.998925883839563</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999930584833717</v>
+        <v>0.9998997999500636</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999686442281669</v>
+        <v>0.999999949759605</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999767412480749</v>
+        <v>0.9999657094230571</v>
       </c>
       <c r="G3" t="n">
-        <v>7.692352244906852e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001002640287517548</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I3" t="n">
-        <v>2.819855218652252e-06</v>
+        <v>4.052437983134418e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>4.104448509921914e-05</v>
+        <v>3.878815390019585e-08</v>
       </c>
       <c r="K3" t="n">
-        <v>2.193217015893569e-05</v>
+        <v>2.028158399262219e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001846515616019098</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002773509012948552</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000039555465517</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002891583033584916</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P3" t="n">
-        <v>81.5505678752332</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.897966796411</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_9</t>
+          <t>model_12_6_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999915568207692</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9989258519580003</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999940129879251</v>
+        <v>0.9998997999500636</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999691037303295</v>
+        <v>0.999999949759605</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999772657822515</v>
+        <v>0.9999657094230571</v>
       </c>
       <c r="G4" t="n">
-        <v>7.881337199172432e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001002670047556916</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I4" t="n">
-        <v>2.43210643255912e-06</v>
+        <v>4.052437983134418e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>4.044299999569865e-05</v>
+        <v>3.878815390019585e-08</v>
       </c>
       <c r="K4" t="n">
-        <v>2.143755321412888e-05</v>
+        <v>2.028158399262219e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001895192234092054</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002807371938160747</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000040527260308</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002926887573629313</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P4" t="n">
-        <v>81.50202594632933</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q4" t="n">
-        <v>116.8494248675071</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_12</t>
+          <t>model_12_6_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999918133225605</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9989258202887685</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999926221190315</v>
+        <v>0.9998997999500636</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999684161689698</v>
+        <v>0.999999949759605</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999764889625895</v>
+        <v>0.9999657094230571</v>
       </c>
       <c r="G5" t="n">
-        <v>7.641904036182926e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001002699609394688</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I5" t="n">
-        <v>2.997119688040728e-06</v>
+        <v>4.052437983134418e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>4.134301298641536e-05</v>
+        <v>3.878815390019585e-08</v>
       </c>
       <c r="K5" t="n">
-        <v>2.217006633722804e-05</v>
+        <v>2.028158399262219e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001825332561590523</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002764399398817567</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N5" t="n">
-        <v>1.00003929605171</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002882085604320874</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P5" t="n">
-        <v>81.56372753288034</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q5" t="n">
-        <v>116.9111264540581</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_8</t>
+          <t>model_12_6_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999913878996898</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9989257312209641</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999945305926045</v>
+        <v>0.9998997999500636</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999693153204793</v>
+        <v>0.999999949759605</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999775241360638</v>
+        <v>0.9999657094230571</v>
       </c>
       <c r="G6" t="n">
-        <v>8.03901761207439e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001002782750280549</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I6" t="n">
-        <v>2.221839666039613e-06</v>
+        <v>4.052437983134418e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>4.016602997588651e-05</v>
+        <v>3.878815390019585e-08</v>
       </c>
       <c r="K6" t="n">
-        <v>2.119393482096306e-05</v>
+        <v>2.028158399262219e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001922348414652924</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002835316139705481</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000041338081489</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002956021417686278</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P6" t="n">
-        <v>81.46240733958368</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.8098062607615</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_13</t>
+          <t>model_12_6_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999918408686879</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9989257215953058</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999922168903393</v>
+        <v>0.9998997999500636</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999681725439986</v>
+        <v>0.999999949759605</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999762325797896</v>
+        <v>0.9999657094230571</v>
       </c>
       <c r="G7" t="n">
-        <v>7.616190935403129e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001002791735410063</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I7" t="n">
-        <v>3.161735910053555e-06</v>
+        <v>4.052437983134418e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>4.166191636256212e-05</v>
+        <v>3.878815390019585e-08</v>
       </c>
       <c r="K7" t="n">
-        <v>2.241182613630784e-05</v>
+        <v>2.028158399262219e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001805391420216627</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00275974472286897</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000039163830298</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002877232769180638</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P7" t="n">
-        <v>81.57046838097936</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q7" t="n">
-        <v>116.9178673021572</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_14</t>
+          <t>model_12_6_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999918513168533</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9989255818296991</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999918324217123</v>
+        <v>0.9998997999500636</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999679378726528</v>
+        <v>0.999999949759605</v>
       </c>
       <c r="F8" t="n">
-        <v>0.999975986883293</v>
+        <v>0.9999657094230571</v>
       </c>
       <c r="G8" t="n">
-        <v>7.606438031574023e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001002922200468789</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I8" t="n">
-        <v>3.317918762096054e-06</v>
+        <v>4.052437983134418e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>4.196909950598384e-05</v>
+        <v>3.878815390019585e-08</v>
       </c>
       <c r="K8" t="n">
-        <v>2.264350913403995e-05</v>
+        <v>2.028158399262219e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001787591323713486</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002757977162989938</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000039113679104</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002875389960618201</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P8" t="n">
-        <v>81.57303111969807</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q8" t="n">
-        <v>116.9204300408759</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_7</t>
+          <t>model_12_6_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999911504766766</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9989254584894707</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999950615237098</v>
+        <v>0.9998997999500636</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999694729134559</v>
+        <v>0.999999949759605</v>
       </c>
       <c r="F9" t="n">
-        <v>0.999977747881817</v>
+        <v>0.9999657094230571</v>
       </c>
       <c r="G9" t="n">
-        <v>8.260641573157208e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001003037333158066</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I9" t="n">
-        <v>2.006159299900964e-06</v>
+        <v>4.052437983134418e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>3.995974187629778e-05</v>
+        <v>3.878815390019585e-08</v>
       </c>
       <c r="K9" t="n">
-        <v>2.098295058809937e-05</v>
+        <v>2.028158399262219e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001951322590702482</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002874133186398502</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000042477711952</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002996490986419385</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P9" t="n">
-        <v>81.40801660230532</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.7554155234831</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="10">
@@ -962,547 +962,547 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999918451413251</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9989254116110359</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999914768969936</v>
+        <v>0.9998997999500636</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999676966674379</v>
+        <v>0.999999949759605</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999757428862817</v>
+        <v>0.9999657094230571</v>
       </c>
       <c r="G10" t="n">
-        <v>7.612202616106863e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001003081092119254</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I10" t="n">
-        <v>3.462343718038062e-06</v>
+        <v>4.052437983134418e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>4.228483543824484e-05</v>
+        <v>3.878815390019585e-08</v>
       </c>
       <c r="K10" t="n">
-        <v>2.287358957814145e-05</v>
+        <v>2.028158399262219e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001771851500582862</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002759022039800853</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N10" t="n">
-        <v>1.00003914332164</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002876479319998151</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P10" t="n">
-        <v>81.57151598179792</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q10" t="n">
-        <v>116.9189149029757</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_16</t>
+          <t>model_12_6_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999991829461651</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9989252243435668</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999911436449044</v>
+        <v>0.9998997999500636</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999967465473569</v>
+        <v>0.999999949759605</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999755106355283</v>
+        <v>0.9999657094230571</v>
       </c>
       <c r="G11" t="n">
-        <v>7.62683890360584e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001003255898081606</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I11" t="n">
-        <v>3.597720854396193e-06</v>
+        <v>4.052437983134418e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>4.258746658886365e-05</v>
+        <v>3.878815390019585e-08</v>
       </c>
       <c r="K11" t="n">
-        <v>2.309259372162992e-05</v>
+        <v>2.028158399262219e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001757675734756738</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002761673207243362</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000039218584075</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O11" t="n">
-        <v>0.00287924335312736</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P11" t="n">
-        <v>81.56767419372207</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q11" t="n">
-        <v>116.9150731148999</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_17</t>
+          <t>model_12_6_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999918109828662</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9989250658132602</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999908370786554</v>
+        <v>0.9998997999500636</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999672648027402</v>
+        <v>0.999999949759605</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999753053184833</v>
+        <v>0.9999657094230571</v>
       </c>
       <c r="G12" t="n">
-        <v>7.644088038146458e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001003403879164085</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I12" t="n">
-        <v>3.722257390593808e-06</v>
+        <v>4.052437983134418e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>4.285014329425446e-05</v>
+        <v>3.878815390019585e-08</v>
       </c>
       <c r="K12" t="n">
-        <v>2.328620034242413e-05</v>
+        <v>2.028158399262219e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001744273330557225</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002764794393466982</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000039307282242</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002882497414710266</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P12" t="n">
-        <v>81.56315602872994</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q12" t="n">
-        <v>116.9105549499077</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_6</t>
+          <t>model_12_6_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999908278112568</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9989249989268298</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999956167601612</v>
+        <v>0.9998997999500636</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999695574535975</v>
+        <v>0.999999949759605</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999779261581463</v>
+        <v>0.9999657094230571</v>
       </c>
       <c r="G13" t="n">
-        <v>8.561835579242506e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001003466314710878</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I13" t="n">
-        <v>1.780605362758354e-06</v>
+        <v>4.052437983134418e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>3.984907942474622e-05</v>
+        <v>3.878815390019585e-08</v>
       </c>
       <c r="K13" t="n">
-        <v>2.081484239375229e-05</v>
+        <v>2.028158399262219e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001982574901052676</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002926061444885002</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000044026505967</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O13" t="n">
-        <v>0.003050629938375969</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P13" t="n">
-        <v>81.33639190794304</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q13" t="n">
-        <v>116.6837908291209</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_18</t>
+          <t>model_12_6_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999917876561761</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9989249090711553</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999905512622312</v>
+        <v>0.9998997999500636</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999670754366674</v>
+        <v>0.999999949759605</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999751123174185</v>
+        <v>0.9999657094230571</v>
       </c>
       <c r="G14" t="n">
-        <v>7.665862479335501e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001003550191038841</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I14" t="n">
-        <v>3.838364716780265e-06</v>
+        <v>4.052437983134418e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>4.309802215347558e-05</v>
+        <v>3.878815390019585e-08</v>
       </c>
       <c r="K14" t="n">
-        <v>2.346819343512792e-05</v>
+        <v>2.028158399262219e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001732148404411256</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002768729397997482</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000039419250355</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O14" t="n">
-        <v>0.002886599940530212</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P14" t="n">
-        <v>81.55746706040942</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q14" t="n">
-        <v>116.9048659815872</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_19</t>
+          <t>model_12_6_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999917592235712</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C15" t="n">
-        <v>0.998924740849776</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999902895185045</v>
+        <v>0.9998997999500636</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999668892858068</v>
+        <v>0.999999949759605</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999749267332589</v>
+        <v>0.9999657094230571</v>
       </c>
       <c r="G15" t="n">
-        <v>7.692403068048409e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001003707218312323</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I15" t="n">
-        <v>3.944692980929213e-06</v>
+        <v>4.052437983134418e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>4.33416923226493e-05</v>
+        <v>3.878815390019585e-08</v>
       </c>
       <c r="K15" t="n">
-        <v>2.364319265178926e-05</v>
+        <v>2.028158399262219e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001721744876535163</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002773518175179028</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000039555726858</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O15" t="n">
-        <v>0.002891592585870512</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P15" t="n">
-        <v>81.55055466133658</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q15" t="n">
-        <v>116.8979535825144</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_20</t>
+          <t>model_12_6_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999917317650395</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9989245995337328</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999900564848075</v>
+        <v>0.9998997999500636</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999667245397154</v>
+        <v>0.999999949759605</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999747621899726</v>
+        <v>0.9999657094230571</v>
       </c>
       <c r="G16" t="n">
-        <v>7.718034401990889e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001003839130635645</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I16" t="n">
-        <v>4.039358357634484e-06</v>
+        <v>4.052437983134418e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>4.35573437992102e-05</v>
+        <v>3.878815390019585e-08</v>
       </c>
       <c r="K16" t="n">
-        <v>2.379835107842234e-05</v>
+        <v>2.028158399262219e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001711409227729285</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002778135058270366</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N16" t="n">
-        <v>1.00003968752781</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O16" t="n">
-        <v>0.002896406019233313</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P16" t="n">
-        <v>81.54390167497517</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q16" t="n">
-        <v>116.891300596153</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_21</t>
+          <t>model_12_6_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999917017665816</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9989244599570885</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999898410146187</v>
+        <v>0.9998997999500636</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999665650883064</v>
+        <v>0.999999949759605</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999746051048345</v>
+        <v>0.9999657094230571</v>
       </c>
       <c r="G17" t="n">
-        <v>7.746036645735629e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001003969419306414</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I17" t="n">
-        <v>4.126888903037544e-06</v>
+        <v>4.052437983134418e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>4.376606457365654e-05</v>
+        <v>3.878815390019585e-08</v>
       </c>
       <c r="K17" t="n">
-        <v>2.394647673834705e-05</v>
+        <v>2.028158399262219e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001702654623216194</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002783170250943271</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000039831520408</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O17" t="n">
-        <v>0.002901655570482589</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P17" t="n">
-        <v>81.53665849191825</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q17" t="n">
-        <v>116.8840574130961</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_22</t>
+          <t>model_12_6_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999916709836961</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9989243178833516</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999896447249658</v>
+        <v>0.9998997999500636</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999664137150082</v>
+        <v>0.999999949759605</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999744577580871</v>
+        <v>0.9999657094230571</v>
       </c>
       <c r="G18" t="n">
-        <v>7.774771118081315e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001004102038903488</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I18" t="n">
-        <v>4.206627731332131e-06</v>
+        <v>4.052437983134418e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>4.396421115776974e-05</v>
+        <v>3.878815390019585e-08</v>
       </c>
       <c r="K18" t="n">
-        <v>2.408541944455093e-05</v>
+        <v>2.028158399262219e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001694756850100358</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002788327656155445</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000039979278259</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O18" t="n">
-        <v>0.002907032537111946</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P18" t="n">
-        <v>81.52925307704237</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q18" t="n">
-        <v>116.8766519982202</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_23</t>
+          <t>model_12_6_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.999991639454338</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9989241737081085</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999894592042835</v>
+        <v>0.9998997999500636</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999662695192281</v>
+        <v>0.999999949759605</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999743177127858</v>
+        <v>0.9999657094230571</v>
       </c>
       <c r="G19" t="n">
-        <v>7.804202389889006e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001004236620164317</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I19" t="n">
-        <v>4.281991876057784e-06</v>
+        <v>4.052437983134418e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>4.415296242118554e-05</v>
+        <v>3.878815390019585e-08</v>
       </c>
       <c r="K19" t="n">
-        <v>2.421747714862166e-05</v>
+        <v>2.028158399262219e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0001687938449593308</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M19" t="n">
-        <v>0.002793600255922276</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000040130619178</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O19" t="n">
-        <v>0.002912529602366638</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P19" t="n">
-        <v>81.52169640283515</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q19" t="n">
-        <v>116.869095324013</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="20">
@@ -1512,382 +1512,382 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999903741111933</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9989241661409927</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D20" t="n">
-        <v>0.999996173868884</v>
+        <v>0.9998997999500636</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999694404557528</v>
+        <v>0.999999949759605</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999779649534444</v>
+        <v>0.9999657094230571</v>
       </c>
       <c r="G20" t="n">
-        <v>8.98534467342032e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00100424368373475</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I20" t="n">
-        <v>1.554290852072342e-06</v>
+        <v>4.052437983134418e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>4.000222878181299e-05</v>
+        <v>3.878815390019585e-08</v>
       </c>
       <c r="K20" t="n">
-        <v>2.077825981694267e-05</v>
+        <v>2.028158399262219e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002018600489082577</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M20" t="n">
-        <v>0.00299755645041429</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000046204266272</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O20" t="n">
-        <v>0.003125168634305703</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P20" t="n">
-        <v>81.23983135496569</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q20" t="n">
-        <v>116.5872302761435</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_24</t>
+          <t>model_12_6_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999916125079832</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9989240470350753</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999892935328857</v>
+        <v>0.9998997999500636</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999661515081552</v>
+        <v>0.999999949759605</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999742001174255</v>
+        <v>0.9999657094230571</v>
       </c>
       <c r="G21" t="n">
-        <v>7.829355629308265e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001004354863880473</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I21" t="n">
-        <v>4.349292637690876e-06</v>
+        <v>4.052437983134418e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>4.430743808672291e-05</v>
+        <v>3.878815390019585e-08</v>
       </c>
       <c r="K21" t="n">
-        <v>2.432836536220689e-05</v>
+        <v>2.028158399262219e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0001681641747930263</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002798098573908408</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000040259961681</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O21" t="n">
-        <v>0.002917219423062241</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P21" t="n">
-        <v>81.51526069291099</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q21" t="n">
-        <v>116.8626596140888</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_4</t>
+          <t>model_12_6_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999897857582288</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9989229795925172</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999967334405573</v>
+        <v>0.9998997999500636</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999691869194051</v>
+        <v>0.999999949759605</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999779095100546</v>
+        <v>0.9999657094230571</v>
       </c>
       <c r="G22" t="n">
-        <v>9.534546340000181e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001005351274653181</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I22" t="n">
-        <v>1.32697581594829e-06</v>
+        <v>4.052437983134418e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>4.033410608014767e-05</v>
+        <v>3.878815390019585e-08</v>
       </c>
       <c r="K22" t="n">
-        <v>2.083054094804798e-05</v>
+        <v>2.028158399262219e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002054928114358361</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M22" t="n">
-        <v>0.003087806072278533</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000049028360502</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O22" t="n">
-        <v>0.003219260369415179</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P22" t="n">
-        <v>81.1211777968783</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q22" t="n">
-        <v>116.4685767180561</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_3</t>
+          <t>model_12_6_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999889921643991</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9989212131036996</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999972758656359</v>
+        <v>0.9998997999500636</v>
       </c>
       <c r="E23" t="n">
-        <v>0.999968585951345</v>
+        <v>0.999999949759605</v>
       </c>
       <c r="F23" t="n">
-        <v>0.999977609226434</v>
+        <v>0.9999657094230571</v>
       </c>
       <c r="G23" t="n">
-        <v>1.027533134531585e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001007000214424481</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I23" t="n">
-        <v>1.106626248137736e-06</v>
+        <v>4.052437983134418e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>4.112076904984696e-05</v>
+        <v>3.878815390019585e-08</v>
       </c>
       <c r="K23" t="n">
-        <v>2.111369764899235e-05</v>
+        <v>2.028158399262219e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.000209299421979229</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M23" t="n">
-        <v>0.003205515769001278</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000052837610884</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O23" t="n">
-        <v>0.003341981211620074</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P23" t="n">
-        <v>80.97152910076524</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q23" t="n">
-        <v>116.3189280219431</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_2</t>
+          <t>model_12_6_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999879443691184</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9989186940209733</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999977896367409</v>
+        <v>0.9998997999500636</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999675515225926</v>
+        <v>0.999999949759605</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999770019125338</v>
+        <v>0.9999657094230571</v>
       </c>
       <c r="G24" t="n">
-        <v>1.125340224692427e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001009351667574523</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I24" t="n">
-        <v>8.97916796169692e-07</v>
+        <v>4.052437983134418e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>4.247482902123604e-05</v>
+        <v>3.878815390019585e-08</v>
       </c>
       <c r="K24" t="n">
-        <v>2.168637290870286e-05</v>
+        <v>2.028158399262219e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002151907749120208</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M24" t="n">
-        <v>0.003354609104936709</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000057867028232</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O24" t="n">
-        <v>0.003497421759532029</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P24" t="n">
-        <v>80.78968010617064</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q24" t="n">
-        <v>116.1370790273484</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_1</t>
+          <t>model_12_6_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999865096516222</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9989149983429336</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999982331617203</v>
+        <v>0.9998997999500636</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999656950391075</v>
+        <v>0.999999949759605</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999758088924123</v>
+        <v>0.9999657094230571</v>
       </c>
       <c r="G25" t="n">
-        <v>1.259264805280382e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001012801420803049</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I25" t="n">
-        <v>7.177434572675981e-07</v>
+        <v>4.052437983134418e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>4.490495286407691e-05</v>
+        <v>3.878815390019585e-08</v>
       </c>
       <c r="K25" t="n">
-        <v>2.281134816067226e-05</v>
+        <v>2.028158399262219e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0002239365955677816</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M25" t="n">
-        <v>0.003548612130510155</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000064753672214</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O25" t="n">
-        <v>0.003699683895545763</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P25" t="n">
-        <v>80.5647948043497</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q25" t="n">
-        <v>115.9121937255275</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_0</t>
+          <t>model_12_6_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.999984597067751</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9989098566903535</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999985738821282</v>
+        <v>0.9998997999500636</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999627922110906</v>
+        <v>0.999999949759605</v>
       </c>
       <c r="F26" t="n">
-        <v>0.999973867476963</v>
+        <v>0.9999657094230571</v>
       </c>
       <c r="G26" t="n">
-        <v>1.437796114380389e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001017600927794164</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I26" t="n">
-        <v>5.793324626881345e-07</v>
+        <v>4.052437983134418e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>4.870473434990306e-05</v>
+        <v>3.878815390019585e-08</v>
       </c>
       <c r="K26" t="n">
-        <v>2.464203340629559e-05</v>
+        <v>2.028158399262219e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0002346468737196124</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M26" t="n">
-        <v>0.003791828205998248</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000073934074795</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O26" t="n">
-        <v>0.003953254182894069</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P26" t="n">
-        <v>80.29962799976396</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q26" t="n">
-        <v>115.6470269209418</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
   </sheetData>
